--- a/biology/Histoire de la zoologie et de la botanique/Jay_Richard_Stauffer/Jay_Richard_Stauffer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jay_Richard_Stauffer/Jay_Richard_Stauffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jay Richard Stauffer, Jr. est un professeur émérite d'ichtyologie à l'Université d'État de Pennsylvanie.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jay Richard Stauffer, Jr. a obtenu son BS à l'Université Cornell en 1972 et son doctorat à l'Institut polytechnique et Université d'État de Virginie et l'Université d’État en 1975[1].
-D'avril 1975 à juin 1984, il a été professeur assistant à l'Appalachian Environmental Laboratory, centre pour les études environnementales et estuariens à la Université du Maryland[1].
-De juillet 1988 à décembre 2005, il est professeur d'ichtyologie à la Penn State School of Forest Resources puis depuis 2007 en tant que professeur émérite d'ichtyologie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jay Richard Stauffer, Jr. a obtenu son BS à l'Université Cornell en 1972 et son doctorat à l'Institut polytechnique et Université d'État de Virginie et l'Université d’État en 1975.
+D'avril 1975 à juin 1984, il a été professeur assistant à l'Appalachian Environmental Laboratory, centre pour les études environnementales et estuariens à la Université du Maryland.
+De juillet 1988 à décembre 2005, il est professeur d'ichtyologie à la Penn State School of Forest Resources puis depuis 2007 en tant que professeur émérite d'ichtyologie.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jay Richard Stauffer, Jr. a publié des dizaines d'articles[2], notamment :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jay Richard Stauffer, Jr. a publié des dizaines d'articles, notamment :
 « Land use and surface water withdrawal effects on fish and macroinvertebrate assemblages in the Susquehanna River basin », avec Matthew K. Shank, avril 2015, Journal of Freshwater Ecology</t>
         </is>
       </c>
